--- a/group5/target/classes/databases/DefaultCONTRACTS.xlsx
+++ b/group5/target/classes/databases/DefaultCONTRACTS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>due_date</t>
   </si>
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" t="n">
         <v>4.0</v>
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7500.0</v>
+        <v>75.0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>

--- a/group5/target/classes/databases/DefaultCONTRACTS.xlsx
+++ b/group5/target/classes/databases/DefaultCONTRACTS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>due_date</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Sandstein</t>
+  </si>
+  <si>
+    <t>Sprengung</t>
   </si>
 </sst>
 </file>
@@ -666,16 +669,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6" t="n">
         <v>4.0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>75.0</v>
+        <v>750.0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>

--- a/group5/target/classes/databases/DefaultCONTRACTS.xlsx
+++ b/group5/target/classes/databases/DefaultCONTRACTS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>due_date</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Sprengung</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>Basalte</t>
   </si>
 </sst>
 </file>
@@ -531,26 +537,26 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="5" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5">
-        <v>300</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>44.0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
+      <c r="G2" s="5" t="n">
+        <v>9000.0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -558,8 +564,8 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4">
-        <v>1</v>
+      <c r="J2" s="4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -570,7 +576,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>900.0</v>
@@ -582,10 +588,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>67500.0</v>
+        <v>135000.0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
